--- a/toppic独有的.xlsx
+++ b/toppic独有的.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,39 +424,39 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Matched Peaks</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Matched Fragments</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Normalized Matched Fragments</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0.00073152889539</t>
+          <t>FDR Value</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>PRSM ID</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -466,46 +466,46 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0012978585334</t>
+          <t>0.00073152889539</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2492</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0019404915912</t>
+          <t>0.0012978585334</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>2408</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -520,51 +520,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0025690430315</t>
+          <t>0.0019404915912</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>2437</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0031989763276</t>
+          <t>0.0025690430315</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>1922</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -574,73 +574,73 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0038119440915</t>
+          <t>0.0031989763276</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>2605</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.003785488959</t>
+          <t>0.0038119440915</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>1354</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0049875311721</t>
+          <t>0.003785488959</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2186</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -650,24 +650,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.005593536358</t>
+          <t>0.0049875311721</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2466</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -677,24 +677,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0055796652201</t>
+          <t>0.005593536358</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>2479</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -704,24 +704,24 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0067650676507</t>
+          <t>0.0055796652201</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1322</t>
+          <t>318</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -731,44 +731,44 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.0073619631902</t>
+          <t>0.0067650676507</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1322</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0079754601227</t>
+          <t>0.0073619631902</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>1982</t>
         </is>
       </c>
     </row>
@@ -790,186 +790,186 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0079510703364</t>
+          <t>0.0079754601227</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>540</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0079219987812</t>
+          <t>0.0079510703364</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>2486</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.0085209981741</t>
+          <t>0.0079219987812</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>334</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0085054678007</t>
+          <t>0.0085209981741</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2116</t>
+          <t>1918</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.0084951456311</t>
+          <t>0.0085054678007</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>2116</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.009096422074</t>
+          <t>0.0084951456311</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>364</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0090744101633</t>
+          <t>0.009096422074</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2326</t>
+          <t>2607</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -979,29 +979,66 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.0096618357488</t>
+          <t>0.0090744101633</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>2326</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.0096618357488</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>input1.6.2/test/Yeast_9_ms2_toppic_prsm.xml</t>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>

--- a/toppic独有的.xlsx
+++ b/toppic独有的.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,31 +461,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00073152889539</t>
+          <t>0.0015408320493</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>1761</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>1</t>
@@ -493,19 +493,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0012978585334</t>
+          <t>0.0014749262537</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>1366</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -520,19 +520,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0019404915912</t>
+          <t>0.0014492753623</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>1394</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -542,125 +542,125 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0025690430315</t>
+          <t>0.0014306151645</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>1640</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0031989763276</t>
+          <t>0.0014265335235</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>1746</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0038119440915</t>
+          <t>0.0014184397163</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>833</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0049875311721</t>
+          <t>0.0041493775934</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>1341</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.005593536358</t>
+          <t>0.004132231405</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>1625</t>
         </is>
       </c>
     </row>
@@ -672,83 +672,83 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0055796652201</t>
+          <t>0.0054127198917</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>1424</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0067650676507</t>
+          <t>0.0067476383266</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1322</t>
+          <t>1281</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.0073619631902</t>
+          <t>0.0067294751009</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1646</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -763,39 +763,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0079754601227</t>
+          <t>0.006711409396</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>1299</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0079510703364</t>
+          <t>0.0067024128686</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>1425</t>
         </is>
       </c>
     </row>
@@ -807,22 +807,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0085054678007</t>
+          <t>0.0080106809079</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2116</t>
+          <t>642</t>
         </is>
       </c>
     </row>
@@ -834,128 +834,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.0084951456311</t>
+          <t>0.0079575596817</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>1590</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>***</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>***</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>***</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.009096422074</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>2607</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.0090744101633</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2326</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.0096618357488</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>527</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>***</t>
         </is>

--- a/toppic独有的.xlsx
+++ b/toppic独有的.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,44 +461,44 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0015408320493</t>
+          <t>0.00038087983241</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>6011</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0014749262537</t>
+          <t>0.00075018754689</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>5932</t>
         </is>
       </c>
     </row>
@@ -520,12 +520,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0014492753623</t>
+          <t>0.00074794315632</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>270</t>
         </is>
       </c>
     </row>
@@ -542,17 +542,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0014306151645</t>
+          <t>0.00073882526782</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1969</t>
         </is>
       </c>
     </row>
@@ -564,29 +564,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0014265335235</t>
+          <t>0.00091743119266</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1746</t>
+          <t>5972</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -596,24 +596,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0014184397163</t>
+          <t>0.00090777051561</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>717</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -623,44 +623,44 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0041493775934</t>
+          <t>0.0010758472297</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>6096</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.004132231405</t>
+          <t>0.0010704727921</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>9261</t>
         </is>
       </c>
     </row>
@@ -672,36 +672,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0054127198917</t>
+          <t>0.0012428977273</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>221</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>3</t>
@@ -709,172 +709,1846 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0067476383266</t>
+          <t>0.0019469026549</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>4741</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.0067294751009</t>
+          <t>0.0019448373409</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>649</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.006711409396</t>
+          <t>0.002287524195</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>1515</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0067024128686</t>
+          <t>0.0024280263614</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>2271</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0080106809079</t>
+          <t>0.0027590963959</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.0079575596817</t>
+          <t>0.003088538092</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1590</t>
+          <t>4703</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.0032528676596</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.0032495296733</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.0034042553191</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4441</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.0035611327794</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.0035545023697</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5416</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.0040554241298</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7475</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.0042165626581</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.0043807919124</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9177</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.0050360919926</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.0050293378039</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1487</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.0051943699732</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.0051926298157</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>6417</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.0053583389149</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.0056846681157</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.0058479532164</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.0060090135203</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.0063417890521</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.0065021673891</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.0066655557407</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5764</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.0068310563146</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>5383</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.0068253704012</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>7998</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.0069825436409</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.007147606383</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.0073065426769</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>7510</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.0073029045643</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>6301</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.007299270073</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2104</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.0074639243656</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.0074626865672</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>5430</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.0074614491792</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>6038</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.0074602122016</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.0074577394763</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3497</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.0074540334603</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.0074515648286</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>5793</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.0074503311258</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.0074490978315</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>7862</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.0076121131888</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>5504</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.0077763070814</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>5951</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.0079365079365</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.0079351959001</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2481</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.0079338842975</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.0079325731284</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.0080938222663</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1489</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.0082590023125</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.0084241823588</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>7785</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.0084214002642</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>6113</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.0085851081393</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3128</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.0087502063728</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2559</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.0087473180393</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.0087444316119</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.0089006098566</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>9399</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.0090654359651</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>5296</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.0090639419908</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>9240</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.0090624485088</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>5624</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.0090609555189</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.0090549884755</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>7787</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.0090505183479</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1685</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.0092120414542</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>9637</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.0093765421944</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>7005</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.0095394736842</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>8383</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.0096991615979</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.0096991615979</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>6940</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.0096959737058</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>3640</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>***</t>
         </is>
